--- a/test_case/TestCase.xlsx
+++ b/test_case/TestCase.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\greys\Desktop\Шаг курс тестирование ПО\Урок 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QA тестирование\Домашка\Ручное тестирование\Задание_Урок15\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2503E06-7D38-4D60-9F70-B46ACD71F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{971196F4-FD47-43E0-B842-C630B3DE48C1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Identefier</t>
   </si>
@@ -57,13 +56,62 @@
   </si>
   <si>
     <t>Module</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Регистрация по номеру телефона</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Находимся на сайте </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://eva.ua/?utm_source=admitad&amp;utm_medium=cpa&amp;utm_campaign=ECOM_630324&amp;tagtag_uid=fe606193933ad310990dc4fd3e14ee85</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Нажать иконку "Вхід"</t>
+  </si>
+  <si>
+    <t>2. Ввести номер телефона</t>
+  </si>
+  <si>
+    <t>3. Нажать кнопку "Отримати СМС"</t>
+  </si>
+  <si>
+    <t>1. Откривается окно регистрации сайта https://eva.ua/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Локализация работает корректно. </t>
+  </si>
+  <si>
+    <t>3. Смс приходит на старый номер телефона</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Поставить в угол разработчика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +123,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,8 +332,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,23 +406,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,31 +487,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,406 +839,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7EA4B6-5332-4CED-982B-B358CD56F54C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="G14" sqref="G14:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="7" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="L1:L19"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="M13:Q13"/>
+  <mergeCells count="37">
     <mergeCell ref="M14:Q19"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E19"/>
     <mergeCell ref="F1:F19"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K11"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K19"/>
@@ -1054,6 +1268,26 @@
     <mergeCell ref="A12:E14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L1:L19"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
